--- a/gas.xlsx
+++ b/gas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. StakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C07693F-877E-4AB0-9426-F4EA9B7F92AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE903FE-ADCE-4429-A217-1C704B478668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="3810" windowWidth="28800" windowHeight="15345" xr2:uid="{E4A2D2C6-D319-4EB2-99BD-DADC575900BD}"/>
+    <workbookView xWindow="47850" yWindow="5070" windowWidth="28800" windowHeight="15345" xr2:uid="{E4A2D2C6-D319-4EB2-99BD-DADC575900BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>User Fn</t>
   </si>
@@ -42,12 +42,6 @@
     <t>stakeTokens</t>
   </si>
   <si>
-    <t>stakeNfts</t>
-  </si>
-  <si>
-    <t>unstake</t>
-  </si>
-  <si>
     <t>rewardsMinted = 9000</t>
   </si>
   <si>
@@ -61,13 +55,79 @@
   </si>
   <si>
     <t>100 stakeTokens = 90 each stake</t>
+  </si>
+  <si>
+    <t>DistributionID</t>
+  </si>
+  <si>
+    <t>GasCosts</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>gas cost after 2 distributions have been set up</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>0xe545d7caec13edcc86c79bf55978ddfa6717e026bfb7cd01894f9ab492aa62be</t>
+  </si>
+  <si>
+    <t>0x4ae48f4374b7fa7237bd245cfb7ceaa73901380f45208dc72494eec1a40fd452</t>
+  </si>
+  <si>
+    <t>0xa6b4ca3b1efabb9fc2d5c80c7ab5c21e602782d6a74429a03e38a634cc844823</t>
+  </si>
+  <si>
+    <t>0xf2b59131ef3e323ab7a5267fd8ec1141621f598df0343ff8b2a633caf859cc39</t>
+  </si>
+  <si>
+    <t>where the fuck is zero</t>
+  </si>
+  <si>
+    <t>RP HAS NOT BEEN STAKED, so distribution 0 does not get updated</t>
+  </si>
+  <si>
+    <t>_calculateDistributionIndex(distribution, totalBoostedRealmPoints)</t>
+  </si>
+  <si>
+    <t>totalBoostedRealmPoints is 0, so _calculateDistributionIndex returns early on totalBalance == 0</t>
+  </si>
+  <si>
+    <t>0xd5eb83729e5450c1d59ce38b28f0815dac9c48b909114234182ef29db5150db5</t>
+  </si>
+  <si>
+    <t>796,177 </t>
+  </si>
+  <si>
+    <t>0x5d31271e3075d90f001393a069f644a4edf31cee514c91737b4eb9cf11af2cb8</t>
+  </si>
+  <si>
+    <t>1,052,491 </t>
+  </si>
+  <si>
+    <t>calculation ignored since no RP was staked</t>
+  </si>
+  <si>
+    <t>0x68d8ad368d9356b51469ba6d8c7fa1b6de99c2ec9a24c9add9b655309f4e8857</t>
+  </si>
+  <si>
+    <t>0x04a1e3956fc7cd8e269b936d6bdca9ba0ef0f51fd156d9450077af8c34d765eb</t>
+  </si>
+  <si>
+    <t>0xce37028d56900c43a8a28629e230999621f376921f344c082eea2cfcc9269098</t>
+  </si>
+  <si>
+    <t>1,196,346 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +149,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -122,14 +209,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,6 +253,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>326737</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14FE0A6-55E7-F757-E298-C5FB7E6660D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639049" y="2110475"/>
+          <a:ext cx="17728913" cy="3567005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>467228</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B579507-3F75-27B8-E75D-8BE7E3E14D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534774" y="1815200"/>
+          <a:ext cx="3610479" cy="3772426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,62 +645,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF862AD1-CC88-47F3-80C2-E6377CA3DCC0}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>389670</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>702381</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <f>B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>674437</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="M5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="M3" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <f t="shared" ref="B6:B16" si="0">B5+1</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>783324</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="M5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
+      <c r="C9" s="6">
+        <v>996200</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1096257</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="31" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gas.xlsx
+++ b/gas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. StakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE903FE-ADCE-4429-A217-1C704B478668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DAA660-A2C3-4855-8A46-2FE9AFF86F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47850" yWindow="5070" windowWidth="28800" windowHeight="15345" xr2:uid="{E4A2D2C6-D319-4EB2-99BD-DADC575900BD}"/>
+    <workbookView xWindow="6510" yWindow="4305" windowWidth="28800" windowHeight="15345" xr2:uid="{E4A2D2C6-D319-4EB2-99BD-DADC575900BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>User Fn</t>
   </si>
@@ -66,12 +66,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>gas cost after 2 distributions have been set up</t>
-  </si>
-  <si>
-    <t>hash</t>
-  </si>
-  <si>
     <t>0xe545d7caec13edcc86c79bf55978ddfa6717e026bfb7cd01894f9ab492aa62be</t>
   </si>
   <si>
@@ -121,13 +115,73 @@
   </si>
   <si>
     <t>1,196,346 </t>
+  </si>
+  <si>
+    <t>0x773f5a7375b1e00c9dcbc60f3c5122ada176c7f63c566aab562bd2c99c49516d</t>
+  </si>
+  <si>
+    <t>1,296,466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>stakeTokens_hash</t>
+  </si>
+  <si>
+    <t>0xed58045803e69231b066edfa13d42c4c8aa94b3e2a15d862a108f1f429c8cb76</t>
+  </si>
+  <si>
+    <t>StakingPro</t>
+  </si>
+  <si>
+    <t>StakingPro | Address 0x14f2a22c97ae2890e73cb15b1c0e42a8a0821223 | BaseScan</t>
+  </si>
+  <si>
+    <t>0xc97b7a5947ef33b5cc58860359eda7c56ebccd50d078ba56ca7b4ba04d05c88a</t>
+  </si>
+  <si>
+    <t>gas costs for updating 1 distribution, id:0 is returned early within _calculateDistributionIndex</t>
+  </si>
+  <si>
+    <t>however, the loops of userAccounts and vaultAccounts are still accounted</t>
+  </si>
+  <si>
+    <t>0xb7f5dcdbe13d96964a25df65cfddc7285b419fea3870a7c25cee8ec89f775d83</t>
+  </si>
+  <si>
+    <t>1,597,011 </t>
+  </si>
+  <si>
+    <t>0x087ad48bdd51e74d18ede4b539137a9953f7f5f9081ba03e153a61f70dd3bbe0</t>
+  </si>
+  <si>
+    <t>0x2497d8e8522add92e674aebf45e3dde040a8d3a3bf6736e2c18c61ca24b730d7</t>
+  </si>
+  <si>
+    <t>0x1862e87ddcbdd8e473796872b9510b95f5e31c7dff0422d8388d7ccfc10d12be</t>
+  </si>
+  <si>
+    <t>https://base.blockscout.com/blocks</t>
+  </si>
+  <si>
+    <t>Gas used</t>
+  </si>
+  <si>
+    <t>Gas limit</t>
+  </si>
+  <si>
+    <t>(fixed for all blocks)</t>
+  </si>
+  <si>
+    <t>(rough average)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +224,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +281,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,41 +308,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -266,9 +486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>326737</xdr:colOff>
+      <xdr:colOff>241012</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152980</xdr:rowOff>
+      <xdr:rowOff>144697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -312,7 +532,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>467228</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>63126</xdr:rowOff>
+      <xdr:rowOff>54843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -645,266 +865,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF862AD1-CC88-47F3-80C2-E6377CA3DCC0}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="17">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
-        <v>24</v>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22">
         <v>389670</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
+      <c r="E3" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="M3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="22">
         <v>702381</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="E4" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="20">
         <f>B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22">
         <v>674437</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="M5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20">
         <f t="shared" ref="B6:B16" si="0">B5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="22">
         <v>783324</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
+      <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="C7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22">
         <v>996200</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
+      <c r="E9" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="22">
         <v>1096257</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
+      <c r="E10" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="J11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="C11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
+      <c r="C12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
+      <c r="C13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1396616</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+      <c r="C14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1496798</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
+      <c r="C15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="31" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J31" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J32" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="C16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1511511</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="20">
+        <v>15</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1697254</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31">
+        <v>16</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="33">
+        <v>2393523</v>
+      </c>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8">
+        <v>264000000</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8">
+        <v>40000000</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1" display="https://sepolia.basescan.org/address/0x14f2a22c97ae2890e73cb15b1c0e42a8a0821223" xr:uid="{7E49AA2A-CC8D-495D-9384-4372F05ACC37}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gas.xlsx
+++ b/gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjp\Desktop\MocaGithub\13. StakingPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\2025GH\StakingPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DAA660-A2C3-4855-8A46-2FE9AFF86F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6539D-B5E3-4731-A64E-EA129438932B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="4305" windowWidth="28800" windowHeight="15345" xr2:uid="{E4A2D2C6-D319-4EB2-99BD-DADC575900BD}"/>
+    <workbookView xWindow="4065" yWindow="0" windowWidth="28800" windowHeight="21150" xr2:uid="{E4A2D2C6-D319-4EB2-99BD-DADC575900BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>PC</author>
+  </authors>
+  <commentList>
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{507754A1-94E5-4B1E-8659-12CD2137019B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gas_cost_eth =gas_units * gas_price_gwei / 1e9
+[Since 1 gwei = 0.000000001 ETH]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0" shapeId="0" xr:uid="{979D1F0F-A7AA-4A66-AA67-8781CA1BFE64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+gas_cost_eth =gas_units * gas_price_gwei / 1e9
+[Since 1 gwei = 0.000000001 ETH]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>User Fn</t>
   </si>
@@ -175,13 +235,42 @@
   </si>
   <si>
     <t>(rough average)</t>
+  </si>
+  <si>
+    <t>if we cap to 10</t>
+  </si>
+  <si>
+    <t>is 3.241% of</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** assuming gwei: 0.20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">** assuming gwei: 0.40 </t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>eth: $3000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +344,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +423,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,12 +528,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,29 +582,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -457,10 +616,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="9" borderId="9" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF862AD1-CC88-47F3-80C2-E6377CA3DCC0}">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF862AD1-CC88-47F3-80C2-E6377CA3DCC0}">
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,19 +1400,87 @@
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="29">
         <v>40000000</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="37">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>10</v>
+      </c>
+      <c r="B31" s="41">
+        <v>1296466</v>
+      </c>
+      <c r="C31" s="42">
+        <f>B31*0.2/1000000000</f>
+        <v>2.5929320000000003E-4</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C31*3000</f>
+        <v>0.77787960000000012</v>
+      </c>
       <c r="J31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>11</v>
+      </c>
+      <c r="B32" s="41">
+        <v>1396616</v>
+      </c>
+      <c r="C32" s="42">
+        <f t="shared" ref="C32:C36" si="1">B32*0.2/1000000000</f>
+        <v>2.7932320000000001E-4</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:D36" si="2">C32*3000</f>
+        <v>0.83796959999999998</v>
+      </c>
       <c r="J32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1240,9 +1489,189 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>12</v>
+      </c>
+      <c r="B33" s="41">
+        <v>1496798</v>
+      </c>
+      <c r="C33" s="42">
+        <f t="shared" si="1"/>
+        <v>2.9935960000000006E-4</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89807880000000018</v>
+      </c>
       <c r="J33" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>13</v>
+      </c>
+      <c r="B34" s="41">
+        <v>1597011</v>
+      </c>
+      <c r="C34" s="42">
+        <f t="shared" si="1"/>
+        <v>3.194022E-4</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95820660000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>14</v>
+      </c>
+      <c r="B35" s="41">
+        <v>1511511</v>
+      </c>
+      <c r="C35" s="42">
+        <f t="shared" si="1"/>
+        <v>3.0230220000000002E-4</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90690660000000012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>15</v>
+      </c>
+      <c r="B36" s="41">
+        <v>1697254</v>
+      </c>
+      <c r="C36" s="42">
+        <f t="shared" si="1"/>
+        <v>3.3945080000000004E-4</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0183524000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>10</v>
+      </c>
+      <c r="B40" s="41">
+        <v>1296466</v>
+      </c>
+      <c r="C40" s="42">
+        <f>B40*0.2/1000000000*2</f>
+        <v>5.1858640000000005E-4</v>
+      </c>
+      <c r="D40" s="1">
+        <f>C40*3000</f>
+        <v>1.5557592000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>11</v>
+      </c>
+      <c r="B41" s="41">
+        <v>1396616</v>
+      </c>
+      <c r="C41" s="42">
+        <f t="shared" ref="C41:C45" si="3">B41*0.2/1000000000*2</f>
+        <v>5.5864640000000002E-4</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:D45" si="4">C41*3000</f>
+        <v>1.6759392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>12</v>
+      </c>
+      <c r="B42" s="41">
+        <v>1496798</v>
+      </c>
+      <c r="C42" s="42">
+        <f t="shared" si="3"/>
+        <v>5.9871920000000012E-4</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7961576000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>13</v>
+      </c>
+      <c r="B43" s="41">
+        <v>1597011</v>
+      </c>
+      <c r="C43" s="42">
+        <f t="shared" si="3"/>
+        <v>6.3880440000000001E-4</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9164132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>14</v>
+      </c>
+      <c r="B44" s="41">
+        <v>1511511</v>
+      </c>
+      <c r="C44" s="42">
+        <f t="shared" si="3"/>
+        <v>6.0460440000000004E-4</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8138132000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>15</v>
+      </c>
+      <c r="B45" s="41">
+        <v>1697254</v>
+      </c>
+      <c r="C45" s="42">
+        <f t="shared" si="3"/>
+        <v>6.7890160000000008E-4</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0367048000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1251,5 +1680,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>